--- a/2- Conceptualizacion/Conceptualizacion.xlsx
+++ b/2- Conceptualizacion/Conceptualizacion.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15600" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptos" sheetId="1" r:id="rId1"/>
     <sheet name="TCAV" sheetId="2" r:id="rId2"/>
     <sheet name="Atributos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Concepto</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Distingue a los jugadores en dos grupos diferentes</t>
-  </si>
-  <si>
-    <t>Defensiva, Ofensiva</t>
   </si>
   <si>
     <t>lanzamiento</t>
@@ -264,6 +261,12 @@
   </si>
   <si>
     <t>Diccionario de Conceptos</t>
+  </si>
+  <si>
+    <t>Defensiva, Ofensiva, Infield, Outfield</t>
+  </si>
+  <si>
+    <t>Jugador</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -640,44 +643,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,6 +763,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,14 +1100,14 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G7"/>
+      <selection activeCell="G7" sqref="B4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -1103,89 +1115,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B1" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="75"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:7" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="8" customFormat="1" ht="45">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="2" customFormat="1" ht="75">
+      <c r="B6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="75">
-      <c r="B6" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>34</v>
+      <c r="G6" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="D7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="2" customFormat="1">
@@ -1231,6 +1244,9 @@
       <c r="B21" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1240,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="B3:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1253,8 +1269,8 @@
     <col min="5" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -1265,237 +1281,235 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="28"/>
-      <c r="C5" s="33" t="s">
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="71"/>
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="31"/>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="31"/>
-      <c r="C8" s="24" t="s">
+      <c r="D5" s="72"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="71"/>
+      <c r="C6" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="64"/>
+      <c r="D7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="19" t="s">
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="71"/>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="71"/>
+      <c r="C10" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="71"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="31"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="18" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="71"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="31"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="18" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="71"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="31"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="18" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="71"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="31"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="18" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="71"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="31"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="18" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="71"/>
+      <c r="C16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="31"/>
-      <c r="C14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="71"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="31"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="18" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="71"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="18" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="71"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="31"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="31"/>
-      <c r="C18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="31"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="18" t="s">
-        <v>65</v>
-      </c>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="31"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="65" t="s">
+        <v>43</v>
+      </c>
       <c r="D20" s="18" t="s">
         <v>66</v>
       </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="31"/>
-      <c r="C21" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="71"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="71"/>
+      <c r="C23" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="71"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="18" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="31"/>
-      <c r="C23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="31"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="20" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="68"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="22"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="20" t="s">
+    <row r="27" spans="2:8">
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="22"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="20" t="s">
+    <row r="28" spans="2:8">
+      <c r="B28" s="68"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="22"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="20" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="68"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="22"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="20" t="s">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B30" s="69"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B30" s="23"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="35"/>
+      <c r="B31" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="8">
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B6:B24"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1503,236 +1517,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:8" s="6" customFormat="1" ht="30.75" thickBot="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="10" customFormat="1" ht="80.25" customHeight="1">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="58">
         <v>1</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="10" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" s="10" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B5" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="54" t="s">
+      <c r="C6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="45">
+      <c r="B7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="45">
+      <c r="B8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="30">
+      <c r="B9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46">
+        <v>2</v>
+      </c>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1">
+      <c r="B10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46">
+        <v>2</v>
+      </c>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="2:8" s="2" customFormat="1">
+      <c r="B11" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="45.75" thickBot="1">
+      <c r="B13" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="D13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G13" s="51">
         <v>1</v>
       </c>
-      <c r="H5" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="45">
-      <c r="B6" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="45">
-      <c r="B7" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="30">
-      <c r="B8" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56">
-        <v>2</v>
-      </c>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="2:8" s="2" customFormat="1">
-      <c r="B9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56">
-        <v>2</v>
-      </c>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" spans="2:8" s="2" customFormat="1">
-      <c r="B10" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B11" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B12" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="63"/>
-    </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="45.75" thickBot="1">
-      <c r="B13" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="61">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>35</v>
+      <c r="H13" s="54" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="2" customFormat="1">
